--- a/data/datasrc/gbp_daily.xlsx
+++ b/data/datasrc/gbp_daily.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viclee/Developer/_gbfx/fx-research/src/datasrc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viclee/Developer/_gbfx/fx-research/data/datasrc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B0D5A-CEEB-5D40-B49C-53674E70825A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBBD92C-E189-DF44-A809-784B5D4BA2BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,8 +897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
